--- a/scripts/data/skill_config_Table.xlsx
+++ b/scripts/data/skill_config_Table.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>功法id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -42,6 +42,78 @@
   </si>
   <si>
     <t>技能类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>script[.][str]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能脚本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shoot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GongKan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrowExplode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality[.][int]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能品质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelSpLimit[.][tInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能灵力消耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;200;300;400;500;600;700;800;900</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strategies[.][tStr]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发器策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次伤害策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害策略;爆炸策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害策略;禁锢策略;冰霜策略</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -107,7 +179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -118,6 +190,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -395,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -406,9 +484,12 @@
     <col min="1" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="37.25" customWidth="1"/>
+    <col min="7" max="7" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -418,8 +499,20 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -429,10 +522,22 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>100100</v>
+        <v>10010</v>
       </c>
       <c r="B3" s="2">
         <v>1001</v>
@@ -440,10 +545,22 @@
       <c r="C3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>100101</v>
+        <v>10011</v>
       </c>
       <c r="B4" s="2">
         <v>1001</v>
@@ -451,10 +568,22 @@
       <c r="C4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>100102</v>
+        <v>10012</v>
       </c>
       <c r="B5" s="2">
         <v>1001</v>
@@ -462,10 +591,22 @@
       <c r="C5" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>100200</v>
+        <v>10020</v>
       </c>
       <c r="B6" s="3">
         <v>1002</v>
@@ -473,10 +614,22 @@
       <c r="C6" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>100300</v>
+        <v>10030</v>
       </c>
       <c r="B7" s="2">
         <v>1003</v>
@@ -484,20 +637,45 @@
       <c r="C7" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>100400</v>
+        <v>10040</v>
       </c>
       <c r="B8" s="3">
         <v>1004</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/scripts/data/skill_config_Table.xlsx
+++ b/scripts/data/skill_config_Table.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\huanhuoserver\scripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" tabRatio="342"/>
   </bookViews>
   <sheets>
     <sheet name="@技能配置表#skill_config_Table" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>功法id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -114,13 +114,45 @@
   </si>
   <si>
     <t>伤害策略;禁锢策略;冰霜策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name[.][str]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓砍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭爆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜禁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>土裂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金盾防</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,24 +504,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="37.25" customWidth="1"/>
-    <col min="7" max="7" width="38.625" customWidth="1"/>
+    <col min="1" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
+    <col min="7" max="7" width="37.25" customWidth="1"/>
+    <col min="8" max="8" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -497,22 +529,25 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -520,156 +555,177 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>10010</v>
       </c>
       <c r="B3" s="2">
         <v>1001</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>10011</v>
       </c>
       <c r="B4" s="2">
         <v>1001</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>10012</v>
       </c>
       <c r="B5" s="2">
         <v>1001</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>10</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>10020</v>
       </c>
       <c r="B6" s="3">
         <v>1002</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>10</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>10030</v>
       </c>
       <c r="B7" s="2">
         <v>1003</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>10040</v>
       </c>
       <c r="B8" s="3">
         <v>1004</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
     </row>
